--- a/【西安-王童童】-组员进度表.xlsx
+++ b/【西安-王童童】-组员进度表.xlsx
@@ -60,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,88 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -103,58 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -163,54 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,43 +240,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,61 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,60 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,24 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,6 +443,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -479,6 +463,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,148 +530,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/【西安-王童童】-组员进度表.xlsx
+++ b/【西安-王童童】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>完成主页 登录注册静态页面的实现</t>
+  </si>
+  <si>
+    <t>只完成登录页面</t>
+  </si>
+  <si>
+    <t>下午6：00</t>
+  </si>
+  <si>
+    <t>登录页面的验证不会写</t>
+  </si>
+  <si>
+    <t>基本没收获，百度看了ajax登录页面验证的演示代码，看不懂 很迷茫。</t>
   </si>
   <si>
     <t>第二天</t>
@@ -60,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,16 +93,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,58 +163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,33 +193,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +252,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,7 +312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,12 +330,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,7 +348,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,66 +390,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,12 +402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,18 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +437,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,82 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +557,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1049,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1046,8 +1058,8 @@
     <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="22.725" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
-    <col min="5" max="5" width="17.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.725" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:6">
@@ -1070,24 +1082,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:6">
+    <row r="2" ht="57" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1096,7 +1116,7 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1106,7 +1126,7 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1116,7 +1136,7 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/【西安-王童童】-组员进度表.xlsx
+++ b/【西安-王童童】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>写轮播图 表单验证部分</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>今天还是不会写</t>
+  </si>
+  <si>
+    <t>没收获</t>
   </si>
   <si>
     <t>第三天</t>
@@ -73,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -95,6 +104,96 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,45 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +261,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,97 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,67 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,26 +449,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +479,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -490,6 +499,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,30 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,7 +557,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1058,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1109,14 +1118,20 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1126,7 +1141,7 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1136,7 +1151,7 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/【西安-王童童】-组员进度表.xlsx
+++ b/【西安-王童童】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -61,7 +61,7 @@
     <t>未完成</t>
   </si>
   <si>
-    <t>今天还是不会写</t>
+    <t>还是不会写</t>
   </si>
   <si>
     <t>没收获</t>
@@ -70,7 +70,20 @@
     <t>第三天</t>
   </si>
   <si>
+    <t>表单验证以及搜索框</t>
+  </si>
+  <si>
+    <t>显示到页面
+拼接有困难</t>
+  </si>
+  <si>
+    <t>完成了表单验证</t>
+  </si>
+  <si>
     <t>第四天</t>
+  </si>
+  <si>
+    <t>页面显示的拼接和ppt制作</t>
   </si>
   <si>
     <t>第五天</t>
@@ -81,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,6 +122,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -125,6 +161,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -134,27 +178,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,52 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +215,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -261,6 +274,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,6 +322,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,42 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,42 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,17 +462,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,15 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -499,30 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +535,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,137 +579,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,7 +1077,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1133,17 +1152,29 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1151,7 +1182,7 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>

--- a/【西安-王童童】-组员进度表.xlsx
+++ b/【西安-王童童】-组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -86,7 +86,16 @@
     <t>页面显示的拼接和ppt制作</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成了合并以及ppt制作</t>
+  </si>
+  <si>
     <t>第五天</t>
+  </si>
+  <si>
+    <t>项目答辩</t>
   </si>
 </sst>
 </file>
@@ -95,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1077,7 +1086,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1175,16 +1184,24 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.333333333333333</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
